--- a/server/Server.xlsx
+++ b/server/Server.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigri\Documents\documentazioni\server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5E4B46-6B99-4450-9DED-076FEFA1B0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -133,12 +142,6 @@
     <t>209.227.229.90</t>
   </si>
   <si>
-    <t>atena</t>
-  </si>
-  <si>
-    <t>atena.gedo.cloud</t>
-  </si>
-  <si>
     <t>atenafad-be</t>
   </si>
   <si>
@@ -161,35 +164,48 @@
   </si>
   <si>
     <t>Maggio2015!</t>
+  </si>
+  <si>
+    <t>smartplace.it</t>
+  </si>
+  <si>
+    <t>smartplace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -197,7 +213,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -237,68 +253,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -488,27 +486,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="3" max="3" width="14.13"/>
-    <col customWidth="1" min="4" max="4" width="17.63"/>
-    <col customWidth="1" min="5" max="5" width="49.88"/>
-    <col customWidth="1" min="9" max="9" width="22.75"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,398 +521,398 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="C2" s="3" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>8.5235146221E10</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>85235146221</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="C11" s="3" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
-      <c r="I12" s="3" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13">
-      <c r="I13" s="3" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="I15" s="3" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17">
-      <c r="I17" s="3" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18">
-      <c r="I18" s="3" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19">
-      <c r="I19" s="3" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="3" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="3" t="s">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="15">
-        <v>2.09227228196E11</v>
-      </c>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>209227228196</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="3" t="s">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28">
-      <c r="I28" s="3" t="s">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I28" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29">
-      <c r="I29" s="3" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I29" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30">
-      <c r="I30" s="3" t="s">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I30" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-    </row>
-    <row r="32">
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3"/>
-      <c r="C34" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="/" ref="E3"/>
-    <hyperlink r:id="rId2" ref="E4"/>
-    <hyperlink r:id="rId3" ref="E5"/>
-    <hyperlink r:id="rId4" ref="E11"/>
-    <hyperlink r:id="rId5" ref="C20"/>
-    <hyperlink r:id="rId6" ref="E21"/>
-    <hyperlink r:id="rId7" ref="E22"/>
-    <hyperlink r:id="rId8" ref="E27"/>
-    <hyperlink r:id="rId9" ref="E32"/>
-    <hyperlink r:id="rId10" ref="E34"/>
+    <hyperlink ref="E3" r:id="rId1" location="/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E32" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>